--- a/biology/Histoire de la zoologie et de la botanique/Sidney_Dillon_Ripley/Sidney_Dillon_Ripley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sidney_Dillon_Ripley/Sidney_Dillon_Ripley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sidney Dillon Ripley, est un ornithologue américain, né le 20 septembre 1913 à New York City et mort le 12 mars 2001.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son grand-père, Sidney Dillon, est le président-fondateur de l’Union Pacific Railroad. En 1927, Sidney et sa sœur voyagent en Inde et au Tibet, une expérience qui marque sa vie.
 Ripley commence ses études à St Paul’s School de Concord (New Hampshire). Il obtient un Bachelor of Arts à l'université Yale en 1936. Il se destine au droit, mais les oiseaux l'intéressent plus que le barreau. Il rejoint en 1936 une expédition scientifique de deux ans en Nouvelle-Guinée organisée par l’Academy of Natural Sciences of Philadelphia. Il évoque son expérience dans un livre, Trail of the Money Bird, qu’il fait paraître en 1942. Il travaille à l’American Museum of Natural History avant d’obtenir son Ph. D. à l’université Harvard en 1943.
@@ -548,7 +562,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1977 : Rails of the World (monographie de la famille des Rallidae).
 avec Sálim Ali et Biswamoy Biswas, Birds of Bhutan.
